--- a/dashboard_creation/target.xlsx
+++ b/dashboard_creation/target.xlsx
@@ -1084,7 +1084,7 @@
         <v>451.9335294263974</v>
       </c>
       <c r="E46" t="n">
-        <v>603.2797895905803</v>
+        <v>591.03045376133</v>
       </c>
       <c r="F46" t="n">
         <v>5392.566428801954</v>
@@ -1104,7 +1104,7 @@
         <v>445.1545264850014</v>
       </c>
       <c r="E47" t="n">
-        <v>594.2305927467216</v>
+        <v>570.3443878796834</v>
       </c>
       <c r="F47" t="n">
         <v>5727.399863735794</v>
@@ -1124,7 +1124,7 @@
         <v>438.4772085877264</v>
       </c>
       <c r="E48" t="n">
-        <v>585.3171338555208</v>
+        <v>550.3823343038945</v>
       </c>
       <c r="F48" t="n">
         <v>6062.233298669635</v>
@@ -1144,7 +1144,7 @@
         <v>431.9000504589105</v>
       </c>
       <c r="E49" t="n">
-        <v>576.5373768476881</v>
+        <v>531.1189526032582</v>
       </c>
       <c r="F49" t="n">
         <v>6397.066733603475</v>
@@ -1164,7 +1164,7 @@
         <v>425.4215497020268</v>
       </c>
       <c r="E50" t="n">
-        <v>567.8893161949726</v>
+        <v>512.529789262144</v>
       </c>
       <c r="F50" t="n">
         <v>6731.900168537315</v>
@@ -1184,7 +1184,7 @@
         <v>419.0402264564965</v>
       </c>
       <c r="E51" t="n">
-        <v>559.370976452048</v>
+        <v>494.591246637969</v>
       </c>
       <c r="F51" t="n">
         <v>7385.833901100875</v>
@@ -1204,7 +1204,7 @@
         <v>412.754623059649</v>
       </c>
       <c r="E52" t="n">
-        <v>550.9804118052673</v>
+        <v>477.2805530056401</v>
       </c>
       <c r="F52" t="n">
         <v>7704.934198730594</v>
@@ -1224,7 +1224,7 @@
         <v>406.5633037137543</v>
       </c>
       <c r="E53" t="n">
-        <v>542.7157056281883</v>
+        <v>460.5757336504427</v>
       </c>
       <c r="F53" t="n">
         <v>8024.034496360314</v>
@@ -1244,7 +1244,7 @@
         <v>400.464854158048</v>
       </c>
       <c r="E54" t="n">
-        <v>534.5749700437655</v>
+        <v>444.4555829726772</v>
       </c>
       <c r="F54" t="n">
         <v>5625.470649406536</v>
@@ -1264,7 +1264,7 @@
         <v>394.4578813456772</v>
       </c>
       <c r="E55" t="n">
-        <v>526.556345493109</v>
+        <v>428.8996375686335</v>
       </c>
       <c r="F55" t="n">
         <v>3045.101660271814</v>
@@ -1284,7 +1284,7 @@
         <v>388.541013125492</v>
       </c>
       <c r="E56" t="n">
-        <v>518.6580003107123</v>
+        <v>413.8881502537313</v>
       </c>
       <c r="F56" t="n">
         <v>5451.599311507158</v>
@@ -1304,7 +1304,7 @@
         <v>382.7128979286097</v>
       </c>
       <c r="E57" t="n">
-        <v>510.8781303060517</v>
+        <v>399.4020649948507</v>
       </c>
       <c r="F57" t="n">
         <v>7630.033707462264</v>
@@ -1324,7 +1324,7 @@
         <v>376.9722044596805</v>
       </c>
       <c r="E58" t="n">
-        <v>503.2149583514609</v>
+        <v>385.4229927200309</v>
       </c>
       <c r="F58" t="inlineStr"/>
     </row>
@@ -1342,7 +1342,7 @@
         <v>371.3176213927853</v>
       </c>
       <c r="E59" t="n">
-        <v>495.6667339761889</v>
+        <v>371.9331879748298</v>
       </c>
       <c r="F59" t="inlineStr"/>
     </row>
@@ -1360,7 +1360,7 @@
         <v>365.7478570718935</v>
       </c>
       <c r="E60" t="n">
-        <v>488.2317329665461</v>
+        <v>358.9155263957107</v>
       </c>
       <c r="F60" t="inlineStr"/>
     </row>
@@ -1378,7 +1378,7 @@
         <v>360.2616392158151</v>
       </c>
       <c r="E61" t="n">
-        <v>480.9082569720479</v>
+        <v>346.3534829718609</v>
       </c>
       <c r="F61" t="inlineStr"/>
     </row>
@@ -1396,7 +1396,7 @@
         <v>354.8577146275779</v>
       </c>
       <c r="E62" t="n">
-        <v>473.6946331174672</v>
+        <v>334.2311110678457</v>
       </c>
       <c r="F62" t="inlineStr"/>
     </row>
@@ -1414,7 +1414,7 @@
         <v>349.5348489081642</v>
       </c>
       <c r="E63" t="n">
-        <v>466.5892136207052</v>
+        <v>322.5330221804711</v>
       </c>
       <c r="F63" t="inlineStr"/>
     </row>
@@ -1432,7 +1432,7 @@
         <v>344.2918261745418</v>
       </c>
       <c r="E64" t="n">
-        <v>459.5903754163946</v>
+        <v>311.2443664041546</v>
       </c>
       <c r="F64" t="inlineStr"/>
     </row>
@@ -1450,7 +1450,7 @@
         <v>339.1274487819236</v>
       </c>
       <c r="E65" t="n">
-        <v>452.6965197851487</v>
+        <v>300.3508135800092</v>
       </c>
       <c r="F65" t="inlineStr"/>
     </row>
@@ -1468,7 +1468,7 @@
         <v>334.0405370501948</v>
       </c>
       <c r="E66" t="n">
-        <v>445.9060719883714</v>
+        <v>289.8385351047089</v>
       </c>
       <c r="F66" t="inlineStr"/>
     </row>
@@ -1486,7 +1486,7 @@
         <v>329.0299289944418</v>
       </c>
       <c r="E67" t="n">
-        <v>439.2174809085458</v>
+        <v>279.6941863760441</v>
       </c>
       <c r="F67" t="inlineStr"/>
     </row>
@@ -1504,7 +1504,7 @@
         <v>324.0944800595252</v>
       </c>
       <c r="E68" t="n">
-        <v>432.6292186949177</v>
+        <v>269.9048898528825</v>
       </c>
       <c r="F68" t="inlineStr"/>
     </row>
@@ -1522,7 +1522,7 @@
         <v>319.2330628586323</v>
       </c>
       <c r="E69" t="n">
-        <v>426.1397804144939</v>
+        <v>260.4582187080316</v>
       </c>
       <c r="F69" t="inlineStr"/>
     </row>
@@ -1540,7 +1540,7 @@
         <v>314.4445669157528</v>
       </c>
       <c r="E70" t="n">
-        <v>419.7476837082765</v>
+        <v>251.3421810532505</v>
       </c>
       <c r="F70" t="inlineStr"/>
     </row>
@@ -1558,7 +1558,7 @@
         <v>309.7278984120165</v>
       </c>
       <c r="E71" t="n">
-        <v>413.4514684526524</v>
+        <v>242.5452047163867</v>
       </c>
       <c r="F71" t="inlineStr"/>
     </row>
@@ -1576,7 +1576,7 @@
         <v>305.0819799358363</v>
       </c>
       <c r="E72" t="n">
-        <v>407.2496964258626</v>
+        <v>234.0561225513132</v>
       </c>
       <c r="F72" t="inlineStr"/>
     </row>
@@ -1594,7 +1594,7 @@
         <v>300.5057502367987</v>
       </c>
       <c r="E73" t="n">
-        <v>401.1409509794746</v>
+        <v>225.8641582620172</v>
       </c>
       <c r="F73" t="inlineStr"/>
     </row>
@@ -1612,7 +1612,7 @@
         <v>295.9981639832467</v>
       </c>
       <c r="E74" t="n">
-        <v>395.1238367147824</v>
+        <v>217.9589127228466</v>
       </c>
       <c r="F74" t="inlineStr"/>
     </row>
@@ -1630,7 +1630,7 @@
         <v>291.558191523498</v>
       </c>
       <c r="E75" t="n">
-        <v>389.1969791640607</v>
+        <v>210.3303507775469</v>
       </c>
       <c r="F75" t="inlineStr"/>
     </row>
@@ -1648,7 +1648,7 @@
         <v>287.1848186506456</v>
       </c>
       <c r="E76" t="n">
-        <v>383.3590244765998</v>
+        <v>202.9687885003328</v>
       </c>
       <c r="F76" t="inlineStr"/>
     </row>
@@ -1666,7 +1666,7 @@
         <v>282.8770463708859</v>
       </c>
       <c r="E77" t="n">
-        <v>377.6086391094508</v>
+        <v>195.8648809028211</v>
       </c>
       <c r="F77" t="inlineStr"/>
     </row>
@@ -1684,7 +1684,7 @@
         <v>278.6338906753226</v>
       </c>
       <c r="E78" t="n">
-        <v>371.944509522809</v>
+        <v>189.0096100712224</v>
       </c>
       <c r="F78" t="inlineStr"/>
     </row>
@@ -1702,7 +1702,7 @@
         <v>274.4543823151927</v>
       </c>
       <c r="E79" t="n">
-        <v>366.3653418799669</v>
+        <v>182.3942737187296</v>
       </c>
       <c r="F79" t="inlineStr"/>
     </row>
@@ -1720,7 +1720,7 @@
         <v>270.3375665804649</v>
       </c>
       <c r="E80" t="n">
-        <v>360.8698617517674</v>
+        <v>176.0104741385741</v>
       </c>
       <c r="F80" t="inlineStr"/>
     </row>
@@ -1738,7 +1738,7 @@
         <v>266.2825030817579</v>
       </c>
       <c r="E81" t="n">
-        <v>355.4568138254909</v>
+        <v>169.850107543724</v>
       </c>
       <c r="F81" t="inlineStr"/>
     </row>
@@ -1756,7 +1756,7 @@
         <v>262.2882655355315</v>
       </c>
       <c r="E82" t="n">
-        <v>350.1249616181085</v>
+        <v>163.9053537796936</v>
       </c>
       <c r="F82" t="inlineStr"/>
     </row>
@@ -1774,7 +1774,7 @@
         <v>258.3539415524986</v>
       </c>
       <c r="E83" t="n">
-        <v>344.8730871938369</v>
+        <v>158.1686663974043</v>
       </c>
       <c r="F83" t="inlineStr"/>
     </row>
@@ -1792,7 +1792,7 @@
         <v>254.4786324292111</v>
       </c>
       <c r="E84" t="n">
-        <v>339.6999908859293</v>
+        <v>152.6327630734952</v>
       </c>
       <c r="F84" t="inlineStr"/>
     </row>
